--- a/data/upload.xlsx
+++ b/data/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6390FF05-2E65-446E-9812-B774A328A56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180D548-4569-4A59-ACE7-9DF3C2AB4533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28650" yWindow="-1500" windowWidth="19790" windowHeight="13840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23740" yWindow="2630" windowWidth="19790" windowHeight="13840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="제품등록(가이드)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>구분명</t>
   </si>
@@ -81,15 +81,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Test1234</t>
+    <t>엑셀 제품 18</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>엑셀 제품 17</t>
+    <t>테스트3210</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>excel product 17</t>
+    <t>Test123</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1991,7 +1991,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2055,26 +2055,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="4">
         <v>5000</v>
       </c>

--- a/data/upload.xlsx
+++ b/data/upload.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9180D548-4569-4A59-ACE7-9DF3C2AB4533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB95709-448E-4E7E-8009-36CD2C331FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23740" yWindow="2630" windowWidth="19790" windowHeight="13840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="제품등록(가이드)" sheetId="1" r:id="rId1"/>
     <sheet name="제품등록" sheetId="2" r:id="rId2"/>
+    <sheet name="제품등록정보_내부" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="23">
   <si>
     <t>구분명</t>
   </si>
@@ -92,12 +94,57 @@
     <t>Test123</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영문</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,6 +212,22 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -216,6 +279,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,518 +556,518 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1989,24 +2053,23 @@
   </sheetPr>
   <dimension ref="A1:P990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="A1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="11" width="11.109375" customWidth="1"/>
+    <col min="1" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="11" width="11.109375" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="26" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,34 +2082,35 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2063,59 +2127,84 @@
       <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4">
-        <v>5000</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="4">
-        <v>1</v>
+        <v>-5000</v>
       </c>
       <c r="K2" s="4">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-10</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="3"/>
       <c r="C4" s="12"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2130,9 +2219,9 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2148,9 +2237,9 @@
       <c r="B6" s="3"/>
       <c r="C6" s="12"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2166,9 +2255,9 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2182,9 +2271,9 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="3"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -6126,4 +6215,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8BD6E2-ADA6-4066-B888-5489C5DA0015}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4">
+        <v>-5000</v>
+      </c>
+      <c r="K2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>-10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41779202-BBAE-4F9B-BFE5-2B2BB6952E85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>